--- a/TradingPL_Apr-24.xlsx
+++ b/TradingPL_Apr-24.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,99 +430,309 @@
         <v>Qty</v>
       </c>
       <c r="C2" t="str">
+        <v>Value</v>
+      </c>
+      <c r="D2" t="str">
         <v>Rate</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Value</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Sales Mono Shade Net</v>
-      </c>
-      <c r="B3">
-        <v>479</v>
+        <v>Sales Accounts</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
       </c>
       <c r="C3" t="str">
-        <v>252.61</v>
-      </c>
-      <c r="D3">
-        <v>121000</v>
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Sales Tape Shade Net</v>
-      </c>
-      <c r="B4">
-        <v>1089.3</v>
+        <v>Sales-Mulch Film Fabric</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
       </c>
       <c r="C4" t="str">
-        <v>221.51</v>
-      </c>
-      <c r="D4">
-        <v>241286</v>
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Sales Weed Mate Fabrics</v>
+        <v>Sales-Mono Shade Net</v>
       </c>
       <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5" t="str">
-        <v>190.00</v>
-      </c>
-      <c r="D5">
-        <v>3800</v>
+        <v>479</v>
+      </c>
+      <c r="C5">
+        <v>121000</v>
+      </c>
+      <c r="D5" t="str">
+        <v>252.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Sales PP Woven Sacks</v>
-      </c>
-      <c r="B6">
-        <v>6074.6</v>
+        <v>Sales-PP Woven Fabrics</v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
       </c>
       <c r="C6" t="str">
-        <v>140.45</v>
-      </c>
-      <c r="D6">
-        <v>853177.32</v>
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Purchase PP Sacks</v>
+        <v>Sales-Tape Shade Net</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1089.3</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>241286</v>
+      </c>
+      <c r="D7" t="str">
+        <v>221.51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Purchase TSN</v>
+        <v>Sales-Weed Mate Fabrics</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+        <v>3800</v>
+      </c>
+      <c r="D8" t="str">
+        <v>190.00</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Sales-PP Woven Sacks</v>
+      </c>
+      <c r="B9">
+        <v>6074.6</v>
+      </c>
+      <c r="C9">
+        <v>853177.32</v>
+      </c>
+      <c r="D9" t="str">
+        <v>140.45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Opening Stock</v>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Add Purchase</v>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Add: Purchase MSN</v>
+      </c>
+      <c r="B12">
+        <v>493</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Add: Purchase PP Sacks</v>
+      </c>
+      <c r="B13">
+        <v>6801</v>
+      </c>
+      <c r="C13">
+        <v>847116</v>
+      </c>
+      <c r="D13" t="str">
+        <v>124.56</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Add: Purchase TSN</v>
+      </c>
+      <c r="B14">
+        <v>1097</v>
+      </c>
+      <c r="C14">
+        <v>214350</v>
+      </c>
+      <c r="D14" t="str">
+        <v>195.40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Add: Consumption TSN</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Add: Purchase Others</v>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Less: Closing Stock</v>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Cost of Sales</v>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Conveyance Charges</v>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Salary &amp; Wages</v>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Commission on Sales</v>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Direct Expenses</v>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Gross Profit</v>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D23"/>
   </ignoredErrors>
 </worksheet>
 </file>